--- a/1-Software Development Lifecycle/Forms/Bugs Log Form - F8.xlsx
+++ b/1-Software Development Lifecycle/Forms/Bugs Log Form - F8.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayed.hawas\Downloads\3-12-2025\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heba.backar\Downloads\SW 2025 2\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB2958-69E4-49B1-9BCE-2101412ED720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99DD60-01D7-4A26-B0E9-AFCC2A4EA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A167D0FB-4EF4-425F-B68B-513D822F74CD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A167D0FB-4EF4-425F-B68B-513D822F74CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-SW-SD-03" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-08" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
